--- a/software/dados_componentes.xlsx
+++ b/software/dados_componentes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t xml:space="preserve">MODELO</t>
   </si>
@@ -45,7 +45,7 @@
     <t xml:space="preserve">CH-300</t>
   </si>
   <si>
-    <t xml:space="preserve">T_MAX_ENTRADA_C</t>
+    <t xml:space="preserve">P_MAX_ENTRADA</t>
   </si>
   <si>
     <t xml:space="preserve">SH-250</t>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t xml:space="preserve">TRB-400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BH-125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BH-250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BH-330</t>
   </si>
 </sst>
 </file>
@@ -155,13 +164,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
+      <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
@@ -192,7 +201,7 @@
         <v>68</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -206,7 +215,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -242,69 +251,69 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>7</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>2.5</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>590</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>0.7</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>560</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>0.9</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>560</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>90</v>
@@ -326,15 +335,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,6 +354,30 @@
       </c>
       <c r="B1" s="0" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/software/dados_componentes.xlsx
+++ b/software/dados_componentes.xlsx
@@ -164,7 +164,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
+      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/software/dados_componentes.xlsx
+++ b/software/dados_componentes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CALDEIRAS" sheetId="1" state="visible" r:id="rId2"/>
@@ -73,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -96,21 +96,42 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -139,9 +160,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -153,82 +182,143 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFED1C24"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FFA3238E"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF21409A"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFED1C24"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>550</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>570</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>590</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>95</v>
       </c>
     </row>
@@ -246,76 +336,77 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF21409A"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>90</v>
       </c>
     </row>
@@ -333,50 +424,51 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFA3238E"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>85</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>87</v>
       </c>
     </row>
